--- a/data/trans_bre/P16B11-Clase-trans_bre.xlsx
+++ b/data/trans_bre/P16B11-Clase-trans_bre.xlsx
@@ -642,7 +642,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-16,53; 5,63</t>
+          <t>-14,25; 5,7</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -657,7 +657,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-17,72; 5,97</t>
+          <t>-14,97; 6,11</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -722,7 +722,7 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 10,96</t>
+          <t>0,0; 14,13</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
@@ -732,12 +732,12 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-22,81; 0,0</t>
+          <t>-16,53; 0,0</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 12,31</t>
+          <t>0,0; 16,46</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -747,7 +747,7 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-22,81; 0,0</t>
+          <t>-16,53; 0,0</t>
         </is>
       </c>
     </row>
@@ -802,12 +802,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,32; 11,45</t>
+          <t>1,32; 12,9</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,78</t>
+          <t>0,0; 3,92</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -817,12 +817,12 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1,34; 12,93</t>
+          <t>1,34; 14,82</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,93</t>
+          <t>0,0; 4,08</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -882,12 +882,12 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-8,18; 0,9</t>
+          <t>-8,47; 0,66</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-6,31; 0,0</t>
+          <t>-6,07; 0,0</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -897,12 +897,12 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-8,37; 0,91</t>
+          <t>-8,53; 0,65</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-6,31; 0,0</t>
+          <t>-6,07; 0,0</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -967,7 +967,7 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-2,77; 0,0</t>
+          <t>-3,26; 0,0</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
@@ -982,7 +982,7 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-2,77; 0,0</t>
+          <t>-3,26; 0,0</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
@@ -1042,12 +1042,12 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-3,76; -0,61</t>
+          <t>-3,74; -0,62</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-1,71; 0,0</t>
+          <t>-1,41; 0,0</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -1057,12 +1057,12 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-3,76; -0,61</t>
+          <t>-3,74; -0,62</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-1,71; 0,0</t>
+          <t>-1,41; 0,0</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
@@ -1122,32 +1122,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-1,37; 2,26</t>
+          <t>-1,5; 2,46</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-0,85; 0,24</t>
+          <t>-0,82; 0,34</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-1,28; 0,0</t>
+          <t>-1,25; 0,0</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-1,39; 2,35</t>
+          <t>-1,51; 2,56</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-0,86; 0,24</t>
+          <t>-0,82; 0,35</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-1,28; 0,0</t>
+          <t>-1,25; 0,0</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P16B11-Clase-trans_bre.xlsx
+++ b/data/trans_bre/P16B11-Clase-trans_bre.xlsx
@@ -994,7 +994,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
